--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/86.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/86.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07442777933842169</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.668232708675541</v>
+        <v>-1.668527050251224</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2089391190690963</v>
+        <v>-0.2093641042318475</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3182374328330948</v>
+        <v>-0.317971423601595</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0673152831436763</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.812116944591879</v>
+        <v>-1.81258993733783</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1939371428239795</v>
+        <v>-0.1944660132487365</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3203513405130016</v>
+        <v>-0.319866542623641</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06905913808982998</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.993770556333389</v>
+        <v>-1.993977539847839</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.269142202420605</v>
+        <v>-0.2699890247078648</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3522944845606777</v>
+        <v>-0.3519151459524443</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08115430628950368</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.021559076910391</v>
+        <v>-2.021608658512712</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2414552060769259</v>
+        <v>-0.2426561826664784</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3564011004481513</v>
+        <v>-0.3556518673464121</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.09904180189283612</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.960156590988452</v>
+        <v>-1.958998899924735</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1925000633662319</v>
+        <v>-0.1943353696616685</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3697031360422633</v>
+        <v>-0.368837425525548</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1208172666538302</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.712864020860022</v>
+        <v>-1.711570964151873</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.169530402329091</v>
+        <v>-0.1708085058555872</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.388300171960431</v>
+        <v>-0.3871763223078223</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1441694968290906</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.49443109132064</v>
+        <v>-1.491932335965575</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05072501307243639</v>
+        <v>-0.0530340991233845</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3714817776493332</v>
+        <v>-0.3705562544060084</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1613993591355415</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.214248604643072</v>
+        <v>-1.211597169433241</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001791906629440608</v>
+        <v>-0.003298242928525366</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3214547279170334</v>
+        <v>-0.3208597486891817</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1602389659721789</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.03617352537384</v>
+        <v>-1.033866013342013</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1479649946284707</v>
+        <v>0.146406715698383</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.31673109653401</v>
+        <v>-0.3159960296043626</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1275479435828245</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8098917494860924</v>
+        <v>-0.8076739565441797</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1757543022150344</v>
+        <v>0.1751262685856354</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3035644265843297</v>
+        <v>-0.3032071242437945</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.05641301608249584</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5882305067289231</v>
+        <v>-0.5853138492971529</v>
       </c>
       <c r="F12" t="n">
-        <v>0.172219055268593</v>
+        <v>0.1714540819756409</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2562494117980311</v>
+        <v>-0.2560825657711732</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05423422886745487</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3888731149205845</v>
+        <v>-0.3846264113313152</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005878060268337193</v>
+        <v>-0.006844508008815815</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2051425849485191</v>
+        <v>-0.2051677692544599</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1989895506371729</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0821015102364443</v>
+        <v>-0.07804526296085243</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1222515899825822</v>
+        <v>-0.1228670314590108</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09468107105387939</v>
+        <v>-0.09477708622027874</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3641350660178246</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3085842018424781</v>
+        <v>0.3130559901660934</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4005633549344846</v>
+        <v>-0.4019815461627766</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03775689781236048</v>
+        <v>0.03755227532659138</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5322438404016688</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6619562166318465</v>
+        <v>0.6667081803590532</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6039234773682909</v>
+        <v>-0.6052000068756658</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07600871049820979</v>
+        <v>0.07595676786720687</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6940567389621056</v>
       </c>
       <c r="E17" t="n">
-        <v>1.154440041361769</v>
+        <v>1.159519401066207</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7107726173795456</v>
+        <v>-0.7129006912315441</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1382233902867408</v>
+        <v>0.1377071120149541</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8552781939788906</v>
       </c>
       <c r="E18" t="n">
-        <v>1.507682986583191</v>
+        <v>1.511890339694428</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9030115077118017</v>
+        <v>-0.9058699264360838</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1882850684397092</v>
+        <v>0.1878663793534432</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.019101434778425</v>
       </c>
       <c r="E19" t="n">
-        <v>1.874072139505716</v>
+        <v>1.877970984869178</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.005325898634589</v>
+        <v>-1.008610876540744</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2521981148601236</v>
+        <v>0.2518659968255291</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.178592094817974</v>
       </c>
       <c r="E20" t="n">
-        <v>2.184969248306786</v>
+        <v>2.189771580645874</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.21978915195005</v>
+        <v>-1.222458688379776</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3208867352945643</v>
+        <v>0.3213337567250137</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.328280364695208</v>
       </c>
       <c r="E21" t="n">
-        <v>2.447183519705146</v>
+        <v>2.451479017887175</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.246311374143967</v>
+        <v>-1.249649081690685</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4480029455116865</v>
+        <v>0.4482768248387928</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.466148504748878</v>
       </c>
       <c r="E22" t="n">
-        <v>2.670226751250817</v>
+        <v>2.673330716958022</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.353424162358039</v>
+        <v>-1.357063294566487</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4456466388870994</v>
+        <v>0.4460621799351228</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.593321575831059</v>
       </c>
       <c r="E23" t="n">
-        <v>2.743201425752559</v>
+        <v>2.746911388821465</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.461679688454176</v>
+        <v>-1.465341643939882</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5434782233524224</v>
+        <v>0.5440857947332445</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.708591969080677</v>
       </c>
       <c r="E24" t="n">
-        <v>2.871323434188193</v>
+        <v>2.874885439459697</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.608760757205876</v>
+        <v>-1.611905647410235</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5840674544334032</v>
+        <v>0.5850008477723345</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.807951293201664</v>
       </c>
       <c r="E25" t="n">
-        <v>2.881201978193476</v>
+        <v>2.884551490883604</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.551769459871382</v>
+        <v>-1.554065953769359</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6373637418806445</v>
+        <v>0.6385190719156791</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.889833451305914</v>
       </c>
       <c r="E26" t="n">
-        <v>2.867100340885743</v>
+        <v>2.870741047113312</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.462436791651522</v>
+        <v>-1.464845827916673</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5753442404631548</v>
+        <v>0.5767876159973875</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.952246016949146</v>
       </c>
       <c r="E27" t="n">
-        <v>2.944416160124033</v>
+        <v>2.947213192102584</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.507723682800024</v>
+        <v>-1.509812406173991</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6066420366710976</v>
+        <v>0.6078965299107743</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.995930954948647</v>
       </c>
       <c r="E28" t="n">
-        <v>2.885190542646852</v>
+        <v>2.887882115344276</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.461639550966583</v>
+        <v>-1.463586612619632</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6250926888109843</v>
+        <v>0.6261724659281966</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.02398768612775</v>
       </c>
       <c r="E29" t="n">
-        <v>2.747585069005382</v>
+        <v>2.751143926238643</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.623958698831595</v>
+        <v>-1.624597750594843</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5946684732153633</v>
+        <v>0.5960583320994718</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.038841719918183</v>
       </c>
       <c r="E30" t="n">
-        <v>2.708680038384193</v>
+        <v>2.711311798355008</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.610429217474455</v>
+        <v>-1.610827444312144</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5449121547719273</v>
+        <v>0.5464735817402576</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.042973607207533</v>
       </c>
       <c r="E31" t="n">
-        <v>2.596139245230315</v>
+        <v>2.599073216872419</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.653956355245344</v>
+        <v>-1.65375802883606</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5407772065402704</v>
+        <v>0.5421009566212842</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.035926267692618</v>
       </c>
       <c r="E32" t="n">
-        <v>2.558047982494839</v>
+        <v>2.560715944905443</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.702772197263803</v>
+        <v>-1.702289760403124</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5323483341457051</v>
+        <v>0.5335886612132902</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.016276355210511</v>
       </c>
       <c r="E33" t="n">
-        <v>2.382899004772104</v>
+        <v>2.385705480865383</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.696762592258676</v>
+        <v>-1.696462741616069</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5288666038493881</v>
+        <v>0.5303068313453781</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.982527218096263</v>
       </c>
       <c r="E34" t="n">
-        <v>2.208576387088053</v>
+        <v>2.211579615571495</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.687768646999564</v>
+        <v>-1.688059840537005</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4708765913824282</v>
+        <v>0.4721798792148651</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.932125844745216</v>
       </c>
       <c r="E35" t="n">
-        <v>2.05640966255543</v>
+        <v>2.059968519788691</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.732070989187694</v>
+        <v>-1.732074924235497</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4083801621711843</v>
+        <v>0.40933086972045</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.86608047331095</v>
       </c>
       <c r="E36" t="n">
-        <v>1.908148079462755</v>
+        <v>1.910879002638211</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.594451349374132</v>
+        <v>-1.595516960319252</v>
       </c>
       <c r="G36" t="n">
-        <v>0.412205028635945</v>
+        <v>0.4131651802999384</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.78617699072181</v>
       </c>
       <c r="E37" t="n">
-        <v>1.706621689305264</v>
+        <v>1.709779171662593</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.579591821859493</v>
+        <v>-1.581029688326801</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3266917178139212</v>
+        <v>0.3280626884685741</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.695280950619592</v>
       </c>
       <c r="E38" t="n">
-        <v>1.589328932424179</v>
+        <v>1.592872049466227</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.475402774163236</v>
+        <v>-1.4770295229251</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2802203772766397</v>
+        <v>0.281671622906479</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.597181521033438</v>
       </c>
       <c r="E39" t="n">
-        <v>1.416306454534322</v>
+        <v>1.419992807316409</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.435802814099993</v>
+        <v>-1.437883667378352</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2673275866540658</v>
+        <v>0.2690102130947362</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.492181697019166</v>
       </c>
       <c r="E40" t="n">
-        <v>1.184602969783255</v>
+        <v>1.189057443896536</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.514573814015925</v>
+        <v>-1.515955015794866</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2917705295887442</v>
+        <v>0.2924741161359656</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.382688985766445</v>
       </c>
       <c r="E41" t="n">
-        <v>1.105218889419576</v>
+        <v>1.109763082622771</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.453742697035017</v>
+        <v>-1.455419814408763</v>
       </c>
       <c r="G41" t="n">
-        <v>0.191681801703476</v>
+        <v>0.1924184426522448</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.269790623067343</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9711140343038784</v>
+        <v>0.9748712179464232</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.33176329822026</v>
+        <v>-1.333750497360902</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1519630031965745</v>
+        <v>0.152934172994417</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.155060541144448</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8862145909391619</v>
+        <v>0.8899056657786121</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.269478574580831</v>
+        <v>-1.270925885162867</v>
       </c>
       <c r="G43" t="n">
-        <v>0.111564228429271</v>
+        <v>0.1122505007661581</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.041155180536399</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7137367236652752</v>
+        <v>0.7175757563021276</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.19448443354646</v>
+        <v>-1.196459040534132</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0964064242911454</v>
+        <v>0.09704547605439348</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.928131637026813</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5564308267016057</v>
+        <v>0.5605720710097478</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.167514402912533</v>
+        <v>-1.169317441815983</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08334206558434969</v>
+        <v>0.08366159146597374</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8184051913479042</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3844755337759908</v>
+        <v>0.3883004002407515</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.023182358556185</v>
+        <v>-1.024872068082901</v>
       </c>
       <c r="G46" t="n">
-        <v>0.008283389766005095</v>
+        <v>0.00868476464193677</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7132651018204054</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3105564478014679</v>
+        <v>0.3138429997267437</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.049596760440292</v>
+        <v>-1.050663158394973</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.03066413937145912</v>
+        <v>-0.0301651753100068</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6142056039145004</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1762060457028477</v>
+        <v>0.1793713981557833</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9180032528326302</v>
+        <v>-0.9194057038697091</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01552207542454651</v>
+        <v>-0.01558031413203463</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5233986562790864</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1758408732667059</v>
+        <v>0.1781326451073197</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8898574299150919</v>
+        <v>-0.8912890003059148</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09993829491902369</v>
+        <v>-0.0992709108115922</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4407579661943863</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.00461097487569014</v>
+        <v>-0.001604598354005826</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8302202064376908</v>
+        <v>-0.8316919143161069</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1064578821194511</v>
+        <v>-0.1060628033200047</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3668319603217722</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.007729106754986802</v>
+        <v>-0.005712788260600621</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9294778522269121</v>
+        <v>-0.9307960932410015</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1503761636419829</v>
+        <v>-0.1497292417831284</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2998462466558612</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.05667795338919559</v>
+        <v>-0.05495440245137134</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8905318971085693</v>
+        <v>-0.8922428558934231</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1578795127932233</v>
+        <v>-0.1576874824604246</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2371515871880102</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1211969971713108</v>
+        <v>-0.1194529839849096</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8452882914859022</v>
+        <v>-0.8468922169705076</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1945604543960145</v>
+        <v>-0.1940819525831391</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1770287304452264</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2253529904660199</v>
+        <v>-0.2232312126905066</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8517661671796153</v>
+        <v>-0.8532780125456246</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2460356017199109</v>
+        <v>-0.24569561358971</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1184158106815536</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3076899307012589</v>
+        <v>-0.3054563975681332</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8321916653871199</v>
+        <v>-0.8337349911355553</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2335709442983308</v>
+        <v>-0.2338589897975288</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.06151395132922803</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3382684001707673</v>
+        <v>-0.3363480968427805</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8176249054290426</v>
+        <v>-0.8195074322981183</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.237016472154858</v>
+        <v>-0.2370558226328905</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.005800762717040619</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3938249790761964</v>
+        <v>-0.3917535699125647</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8182167366186518</v>
+        <v>-0.8199324174608695</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.353473424882532</v>
+        <v>-0.353070475987479</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.04943707191440863</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4123606282486333</v>
+        <v>-0.4103081073144572</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7205582942566718</v>
+        <v>-0.7221811079707329</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3628608749219693</v>
+        <v>-0.3625098686579192</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1039234970950677</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5266265463594567</v>
+        <v>-0.5243583848056624</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7172780384078813</v>
+        <v>-0.7194517588143975</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4166214980099943</v>
+        <v>-0.4162988240901276</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1575872119089485</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5425367316375641</v>
+        <v>-0.5401867210894622</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7057735326502945</v>
+        <v>-0.7073869022496277</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4177484957008455</v>
+        <v>-0.4179326559380377</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2091793677614739</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5532007111843763</v>
+        <v>-0.5511481902502001</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7176416368249017</v>
+        <v>-0.7195194416366134</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4587501197916072</v>
+        <v>-0.4584321679291045</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2575920635765455</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6636559290025307</v>
+        <v>-0.6613452689324613</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7573887676759867</v>
+        <v>-0.759191019569876</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4923853343946816</v>
+        <v>-0.4922279324825515</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3027740233099933</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7431596348194285</v>
+        <v>-0.7412078511090157</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7716304926855153</v>
+        <v>-0.7736971797917831</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.554000312897997</v>
+        <v>-0.5535957899838228</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3448246333942123</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7711897673315511</v>
+        <v>-0.7697605579694101</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8209397896985019</v>
+        <v>-0.8226082499670807</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5457650448553518</v>
+        <v>-0.5454234827060296</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3842377214421887</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8288775681272214</v>
+        <v>-0.8268581015945925</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8338695697704265</v>
+        <v>-0.8360086617562741</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5836438150094528</v>
+        <v>-0.5831243886994236</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4205046356751149</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8573500000124294</v>
+        <v>-0.855557192233268</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9405140872959119</v>
+        <v>-0.942373003878168</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6708885468649074</v>
+        <v>-0.6703848607460912</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4530694659501647</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9863699863567649</v>
+        <v>-0.9843741301109556</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9033743191192616</v>
+        <v>-0.9054449412733326</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6690642587033199</v>
+        <v>-0.6688281558351248</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4820425373587895</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.034490111923609</v>
+        <v>-1.032742163689405</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9884295903769869</v>
+        <v>-0.9906639105196732</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7314457845187088</v>
+        <v>-0.7310727419869605</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5068575089090072</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.067161239814887</v>
+        <v>-1.065005620628265</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9528142597193162</v>
+        <v>-0.9549950632118783</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7611128969169841</v>
+        <v>-0.7604533829051591</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.526182855424928</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.222010092930206</v>
+        <v>-1.218995059303354</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9502730058479762</v>
+        <v>-0.9520052138909676</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7834010076746019</v>
+        <v>-0.7829650043780015</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5382259009119036</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.226451187880956</v>
+        <v>-1.223566010831611</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9924803285856542</v>
+        <v>-0.9942007314852358</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8133860719353799</v>
+        <v>-0.8126840594072798</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.541437829565598</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.204089098224637</v>
+        <v>-1.200812777423649</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.083305166932507</v>
+        <v>-1.08472493217992</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7759700634029413</v>
+        <v>-0.7751862018805336</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5346813726441779</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.161441050132995</v>
+        <v>-1.157946727683707</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.153673265769376</v>
+        <v>-1.154279263131076</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7647252708003692</v>
+        <v>-0.7642908415228902</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5175635528736156</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.165162031335749</v>
+        <v>-1.161845573047169</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.146347780778842</v>
+        <v>-1.146569717474946</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7737050498873896</v>
+        <v>-0.7723592635386776</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4906298871737339</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.087767511141394</v>
+        <v>-1.083915886351572</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.175493892847967</v>
+        <v>-1.176570521926937</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7889761834022488</v>
+        <v>-0.7878491857113976</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.455478135514267</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9986473355029103</v>
+        <v>-0.9945304884911483</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.259871548873972</v>
+        <v>-1.26029259898892</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7303439711337982</v>
+        <v>-0.7291760489457931</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4134156855929667</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8872280309729591</v>
+        <v>-0.8838446768717233</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.206775948864697</v>
+        <v>-1.207370928092549</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7436145263454843</v>
+        <v>-0.7421916130598285</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3659249721066719</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7974034817776927</v>
+        <v>-0.7940508210493223</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.208952817309456</v>
+        <v>-1.209445485294423</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7032865824386394</v>
+        <v>-0.7017802461395547</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3140014090134666</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6765424235486195</v>
+        <v>-0.6731929108584915</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.27492231971185</v>
+        <v>-1.27562511924951</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6801012807818803</v>
+        <v>-0.678812159121535</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.258228830930724</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5025440538035563</v>
+        <v>-0.4984563261455383</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.188729819638985</v>
+        <v>-1.189618353432959</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6985283226349475</v>
+        <v>-0.6969149530356142</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.19991463020127</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2761890860266682</v>
+        <v>-0.2731181747210106</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.204300016786891</v>
+        <v>-1.204837544316815</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6280043959050702</v>
+        <v>-0.6268648060612484</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1396010549590419</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1072622058904358</v>
+        <v>-0.104101575494864</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.211237506064024</v>
+        <v>-1.212196870718456</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4922720050179479</v>
+        <v>-0.4914834214381763</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.07914386291545894</v>
       </c>
       <c r="E83" t="n">
-        <v>0.08246691095290651</v>
+        <v>0.08535681005961457</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.127007807835421</v>
+        <v>-1.127969533518535</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4495971986012437</v>
+        <v>-0.4493091531020457</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.02011075093464111</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2304687808905676</v>
+        <v>0.2336215411905329</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.099301136252725</v>
+        <v>-1.100572943702736</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3580774308123365</v>
+        <v>-0.3573360678062039</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.03542999506326297</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4435909699146807</v>
+        <v>0.4460165333806051</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.079599138911405</v>
+        <v>-1.080676554999935</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2797731275658699</v>
+        <v>-0.2796031335007694</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08471240809216869</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6016177676359059</v>
+        <v>0.6040118507194042</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9709989026277031</v>
+        <v>-0.971962202329939</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2227794692026933</v>
+        <v>-0.2223544840399421</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1249886864954734</v>
       </c>
       <c r="E87" t="n">
-        <v>0.830392002802233</v>
+        <v>0.8327876599048527</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9262156975980165</v>
+        <v>-0.9272293659121341</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.164709181760547</v>
+        <v>-0.1643251210949496</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1532033168526287</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9391047814531076</v>
+        <v>0.9411950788461949</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7506897422957309</v>
+        <v>-0.7518891448661621</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09964552736246177</v>
+        <v>-0.09996662726320711</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1683172186616573</v>
       </c>
       <c r="E89" t="n">
-        <v>1.185663858671011</v>
+        <v>1.187983962855808</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5925039686432544</v>
+        <v>-0.5936246702576206</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02642553415811682</v>
+        <v>0.02600054899536564</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1695564764819413</v>
       </c>
       <c r="E90" t="n">
-        <v>1.358089783313895</v>
+        <v>1.360282391949867</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5205272222644166</v>
+        <v>-0.5217785674658506</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04812181372612551</v>
+        <v>0.04710814541200786</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.156326329244977</v>
       </c>
       <c r="E91" t="n">
-        <v>1.440250433407548</v>
+        <v>1.442663404720502</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3006871196305921</v>
+        <v>-0.3019195766025706</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07833983281685611</v>
+        <v>0.07795262411301614</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1293852172864841</v>
       </c>
       <c r="E92" t="n">
-        <v>1.583094242684707</v>
+        <v>1.585267963091223</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2132472094040963</v>
+        <v>-0.2137949680583089</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09133021262495068</v>
+        <v>0.09080921229580016</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09073239105659549</v>
       </c>
       <c r="E93" t="n">
-        <v>1.595601398622562</v>
+        <v>1.597930946922087</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.007532354364824216</v>
+        <v>-0.008289457562169847</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1188818433241979</v>
+        <v>0.1184332478746272</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04426405793263974</v>
       </c>
       <c r="E94" t="n">
-        <v>1.545379170519221</v>
+        <v>1.547093277342318</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1500269596773746</v>
+        <v>0.1496271588205643</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1334352241197441</v>
+        <v>0.1330275531673272</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.005565200505751729</v>
       </c>
       <c r="E95" t="n">
-        <v>1.53989528790061</v>
+        <v>1.540951454731003</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2014265540834486</v>
+        <v>0.2012628560948333</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1453710111165672</v>
+        <v>0.1448421406918102</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05333700140231971</v>
       </c>
       <c r="E96" t="n">
-        <v>1.511259158026786</v>
+        <v>1.512039871510952</v>
       </c>
       <c r="F96" t="n">
-        <v>0.291811454085898</v>
+        <v>0.2914935022233953</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05263924860425848</v>
+        <v>0.05241416386991248</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09470237644647979</v>
       </c>
       <c r="E97" t="n">
-        <v>1.353517257766517</v>
+        <v>1.353309487242505</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3066733426292191</v>
+        <v>0.3066749166483404</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03220848040977555</v>
+        <v>0.03175044084547705</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1279140563577593</v>
       </c>
       <c r="E98" t="n">
-        <v>1.292177732609429</v>
+        <v>1.291763765580527</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2595755424816599</v>
+        <v>0.2597077600878492</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02930126709273318</v>
+        <v>0.02892192848449971</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1533716621746727</v>
       </c>
       <c r="E99" t="n">
-        <v>1.188171271131243</v>
+        <v>1.188136642710575</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2303570255329552</v>
+        <v>0.2307033097396414</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06408708967347838</v>
+        <v>0.06348109231177762</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1742756239852734</v>
       </c>
       <c r="E100" t="n">
-        <v>1.07186070218185</v>
+        <v>1.071512843956043</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2285469035434594</v>
+        <v>0.2285878280406133</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02672459779116395</v>
+        <v>0.02605878770285376</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1914143848185361</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9104592074645564</v>
+        <v>0.9101050531622638</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1935910868976138</v>
+        <v>0.1938995946453887</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01301466296431451</v>
+        <v>-0.01381741271617786</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2094128445566359</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7399095136142629</v>
+        <v>0.7396718367269466</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1555250084680779</v>
+        <v>0.1553298300970367</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03615274404743462</v>
+        <v>-0.03682642423135132</v>
       </c>
     </row>
   </sheetData>
